--- a/public/excel/BusinessArea.xlsx
+++ b/public/excel/BusinessArea.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\redaxa\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivansandoya/Documents/works/customers/redaxa/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4365" windowHeight="8985"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="8980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -364,16 +364,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -381,7 +384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -389,7 +392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -397,7 +400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -405,7 +408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -413,7 +416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -421,7 +424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
